--- a/Parts/BOM_Electronic_Parts.xlsx
+++ b/Parts/BOM_Electronic_Parts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlgcq\OneDrive\Bureau\CAM87 package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\GitHub\Cam87-Astrogatines-Edition\Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD2ECD9-8A00-45BD-BBB8-67E0AD45DCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C59E6C6-3C70-48EE-98FB-2EDBD5D840A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{ABE32D97-67C6-4412-ADA2-E70A96AF4EBD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="277">
   <si>
     <t>Supplier</t>
   </si>
@@ -225,9 +225,6 @@
     <t>IND-SMD_L12.5-W12.5</t>
   </si>
   <si>
-    <t>JST-PH-9-HEADER</t>
-  </si>
-  <si>
     <t>U11</t>
   </si>
   <si>
@@ -859,6 +856,12 @@
   </si>
   <si>
     <t>78N06G-AB3-R or best :  DI78M06UAB</t>
+  </si>
+  <si>
+    <t>JST-PH-9-HEADER ANGLE</t>
+  </si>
+  <si>
+    <t>JST-PH-9-HEADER ANGLE connector</t>
   </si>
 </sst>
 </file>
@@ -1717,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9013EA1E-6844-4E22-81D0-936CC67BD0CC}">
   <dimension ref="A2:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,33 +1743,33 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1781,513 +1784,513 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
         <v>76</v>
       </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
         <v>114</v>
       </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
         <v>118</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>119</v>
       </c>
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>120</v>
-      </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
         <v>272</v>
       </c>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" t="s">
-        <v>273</v>
-      </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F28" t="s">
         <v>49</v>
@@ -2298,76 +2301,76 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2384,13 +2387,13 @@
         <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2407,13 +2410,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" t="s">
         <v>226</v>
       </c>
-      <c r="F36" t="s">
-        <v>227</v>
-      </c>
       <c r="G36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2430,13 +2433,13 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
         <v>25</v>
       </c>
       <c r="G37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2453,13 +2456,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" t="s">
         <v>208</v>
       </c>
-      <c r="F38" t="s">
-        <v>209</v>
-      </c>
       <c r="G38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2476,13 +2479,13 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2499,13 +2502,13 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F40" t="s">
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,13 +2525,13 @@
         <v>13</v>
       </c>
       <c r="E41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" t="s">
         <v>216</v>
       </c>
-      <c r="F41" t="s">
-        <v>217</v>
-      </c>
       <c r="G41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2539,19 +2542,19 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2568,13 +2571,13 @@
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
         <v>25</v>
       </c>
       <c r="G43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H43" t="s">
         <v>26</v>
@@ -2594,13 +2597,13 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F44" t="s">
         <v>25</v>
       </c>
       <c r="G44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H44" t="s">
         <v>29</v>
@@ -2620,13 +2623,13 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" t="s">
         <v>191</v>
       </c>
-      <c r="F45" t="s">
-        <v>192</v>
-      </c>
       <c r="G45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2649,7 +2652,7 @@
         <v>25</v>
       </c>
       <c r="G46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2666,13 +2669,13 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" t="s">
         <v>199</v>
       </c>
-      <c r="F47" t="s">
-        <v>200</v>
-      </c>
       <c r="G47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2689,13 +2692,13 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" t="s">
         <v>179</v>
       </c>
-      <c r="F48" t="s">
-        <v>180</v>
-      </c>
       <c r="G48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2712,18 +2715,18 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2740,36 +2743,36 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" t="s">
         <v>206</v>
       </c>
-      <c r="F53" t="s">
-        <v>207</v>
-      </c>
       <c r="G53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
         <v>67</v>
       </c>
-      <c r="B54" t="s">
-        <v>68</v>
-      </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
+        <v>213</v>
+      </c>
+      <c r="F54" t="s">
         <v>214</v>
       </c>
-      <c r="F54" t="s">
-        <v>215</v>
-      </c>
       <c r="G54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2786,10 +2789,10 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G55" t="s">
         <v>49</v>
@@ -2797,27 +2800,27 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
         <v>127</v>
       </c>
-      <c r="B59" t="s">
-        <v>128</v>
-      </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G59" t="s">
         <v>49</v>
@@ -2825,22 +2828,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G60" t="s">
         <v>49</v>
@@ -2848,136 +2851,136 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
         <v>130</v>
       </c>
-      <c r="B64" t="s">
-        <v>131</v>
-      </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
         <v>72</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>73</v>
       </c>
-      <c r="C65" t="s">
-        <v>74</v>
-      </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" t="s">
         <v>162</v>
       </c>
-      <c r="B66" t="s">
-        <v>163</v>
-      </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
+        <v>221</v>
+      </c>
+      <c r="F66" t="s">
         <v>222</v>
       </c>
-      <c r="F66" t="s">
-        <v>223</v>
-      </c>
       <c r="G66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" t="s">
         <v>148</v>
       </c>
-      <c r="B67" t="s">
-        <v>149</v>
-      </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
         <v>70</v>
       </c>
-      <c r="B68" t="s">
-        <v>71</v>
-      </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
+        <v>192</v>
+      </c>
+      <c r="F68" t="s">
         <v>193</v>
       </c>
-      <c r="F68" t="s">
-        <v>194</v>
-      </c>
       <c r="G68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" t="s">
         <v>156</v>
       </c>
-      <c r="B69" t="s">
-        <v>157</v>
-      </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G69" t="s">
         <v>49</v>
@@ -2985,16 +2988,16 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" t="s">
         <v>136</v>
       </c>
-      <c r="B70" t="s">
-        <v>137</v>
-      </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G70" t="s">
         <v>49</v>
@@ -3002,16 +3005,16 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" t="s">
         <v>159</v>
       </c>
-      <c r="B71" t="s">
-        <v>160</v>
-      </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F71" t="s">
         <v>57</v>
@@ -3022,19 +3025,19 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" t="s">
         <v>151</v>
       </c>
-      <c r="B72" t="s">
-        <v>152</v>
-      </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G72" t="s">
         <v>49</v>
@@ -3042,93 +3045,93 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s">
         <v>139</v>
       </c>
-      <c r="B76" t="s">
-        <v>140</v>
-      </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" t="s">
         <v>133</v>
       </c>
-      <c r="B77" t="s">
-        <v>134</v>
-      </c>
       <c r="C77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
         <v>153</v>
       </c>
-      <c r="B78" t="s">
-        <v>154</v>
-      </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G78" t="s">
         <v>49</v>
       </c>
       <c r="H78" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" t="s">
         <v>142</v>
       </c>
-      <c r="B79" t="s">
-        <v>143</v>
-      </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -3136,19 +3139,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" t="s">
         <v>145</v>
       </c>
-      <c r="B80" t="s">
-        <v>146</v>
-      </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G80" t="s">
         <v>49</v>
@@ -3156,30 +3159,30 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G84" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3196,30 +3199,30 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G85" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" t="s">
         <v>122</v>
       </c>
-      <c r="B86" t="s">
-        <v>123</v>
-      </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F86" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G86" t="s">
         <v>49</v>
@@ -3230,7 +3233,7 @@
         <v>45</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C87" t="s">
         <v>44</v>
@@ -3239,16 +3242,16 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G87" t="s">
         <v>49</v>
       </c>
       <c r="H87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3259,48 +3262,48 @@
         <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G88" t="s">
         <v>49</v>
       </c>
       <c r="H88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="C89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="F89" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G89" t="s">
         <v>49</v>
       </c>
       <c r="H89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3320,13 +3323,13 @@
         <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G90" t="s">
         <v>49</v>
       </c>
       <c r="H90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3334,10 +3337,10 @@
         <v>54</v>
       </c>
       <c r="B91" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3346,7 +3349,7 @@
         <v>53</v>
       </c>
       <c r="F91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G91" t="s">
         <v>49</v>
@@ -3354,22 +3357,22 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G92" t="s">
         <v>49</v>
@@ -3380,10 +3383,10 @@
         <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -3398,7 +3401,7 @@
         <v>49</v>
       </c>
       <c r="H93" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3409,68 +3412,68 @@
         <v>51</v>
       </c>
       <c r="C94" t="s">
+        <v>262</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>252</v>
+      </c>
+      <c r="F94" t="s">
         <v>263</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94" t="s">
-        <v>253</v>
-      </c>
-      <c r="F94" t="s">
-        <v>264</v>
       </c>
       <c r="G94" t="s">
         <v>49</v>
       </c>
       <c r="H94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B95" t="s">
         <v>52</v>
       </c>
       <c r="C95" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G95" t="s">
         <v>49</v>
       </c>
       <c r="H95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" t="s">
+        <v>252</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
         <v>237</v>
       </c>
-      <c r="C96" t="s">
-        <v>253</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96" t="s">
-        <v>238</v>
-      </c>
       <c r="F96" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G96" t="s">
         <v>49</v>
@@ -3478,22 +3481,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B97" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G97" t="s">
         <v>49</v>

--- a/Parts/BOM_Electronic_Parts.xlsx
+++ b/Parts/BOM_Electronic_Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\GitHub\Cam87-Astrogatines-Edition\Parts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlgcq\OneDrive\Bureau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C59E6C6-3C70-48EE-98FB-2EDBD5D840A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110D251A-E8D5-4472-8965-06D337692DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{ABE32D97-67C6-4412-ADA2-E70A96AF4EBD}"/>
+    <workbookView xWindow="195" yWindow="0" windowWidth="22290" windowHeight="20985" xr2:uid="{ABE32D97-67C6-4412-ADA2-E70A96AF4EBD}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Cam87-4-couches_2025-01-12" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="277">
   <si>
     <t>Supplier</t>
   </si>
@@ -39,18 +39,12 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C15,C1L,C34L,C22L,C28L,C30L,C31L,C27L,C8,C9L,C12,C12L,C15L,C21L,C26L,C29L,C33L</t>
-  </si>
-  <si>
     <t>C0603</t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>C2,C6,C25L,C36L,C6L,C37L,C7L,C14L,C9,C35L</t>
-  </si>
-  <si>
     <t>C3,C4</t>
   </si>
   <si>
@@ -862,13 +856,19 @@
   </si>
   <si>
     <t>JST-PH-9-HEADER ANGLE connector</t>
+  </si>
+  <si>
+    <t>C15,C1L,C34L,C22L,C28L,C30L,C31L,C27L,C8,C9L,C12,C12L,C15L,C21L,C26L,C29L,C33L, C1S,C3S</t>
+  </si>
+  <si>
+    <t>C2,C6,C25L,C36L,C6L,C37L,C7L,C14L,C9,C35L,C2S,C4S,C6S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,6 +1008,20 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1354,14 +1368,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1718,15 +1734,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9013EA1E-6844-4E22-81D0-936CC67BD0CC}">
-  <dimension ref="A2:H97"/>
+  <dimension ref="A2:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -1742,712 +1758,718 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>228</v>
+      <c r="A2" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>82</v>
+      <c r="A7" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>97</v>
+      <c r="A8" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>75</v>
+      <c r="A9" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>217</v>
       </c>
-      <c r="F9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B23" t="s">
         <v>74</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>249</v>
+      </c>
+      <c r="H25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" t="s">
         <v>224</v>
       </c>
-      <c r="F10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" t="s">
-        <v>168</v>
-      </c>
-      <c r="G12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>219</v>
-      </c>
-      <c r="F16" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>219</v>
-      </c>
-      <c r="F18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" t="s">
-        <v>200</v>
-      </c>
-      <c r="G19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>201</v>
-      </c>
-      <c r="F21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" t="s">
         <v>189</v>
       </c>
-      <c r="F22" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F23" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" t="s">
-        <v>196</v>
-      </c>
-      <c r="G26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>270</v>
-      </c>
-      <c r="B27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>195</v>
-      </c>
-      <c r="F27" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" t="s">
-        <v>251</v>
-      </c>
-      <c r="H27" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>271</v>
-      </c>
-      <c r="B28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" t="s">
-        <v>272</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>252</v>
-      </c>
-      <c r="F28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>210</v>
-      </c>
-      <c r="F29" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>184</v>
-      </c>
-      <c r="G30" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>252</v>
-      </c>
-      <c r="F31" t="s">
-        <v>252</v>
-      </c>
-      <c r="G31" t="s">
-        <v>252</v>
-      </c>
-      <c r="H31" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>209</v>
-      </c>
-      <c r="F35" t="s">
-        <v>200</v>
-      </c>
-      <c r="G35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>225</v>
-      </c>
-      <c r="F36" t="s">
-        <v>226</v>
-      </c>
-      <c r="G36" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>197</v>
-      </c>
-      <c r="F37" t="s">
-        <v>25</v>
-      </c>
       <c r="G37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>10</v>
+      <c r="A38" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -2456,188 +2478,188 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="F38" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>12</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39">
         <v>13</v>
       </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39">
-        <v>5</v>
-      </c>
       <c r="E39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F39" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="G39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>30</v>
+      <c r="A40" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="G40" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41">
         <v>4</v>
       </c>
-      <c r="D41">
-        <v>13</v>
-      </c>
       <c r="E41" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="G41" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+      <c r="H41" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>6</v>
+      <c r="A42" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="F42" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="G42" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" t="s">
         <v>23</v>
       </c>
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s">
-        <v>251</v>
-      </c>
-      <c r="H43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44" t="s">
-        <v>25</v>
-      </c>
       <c r="G44" t="s">
-        <v>251</v>
-      </c>
-      <c r="H44" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" t="s">
+        <v>197</v>
+      </c>
+      <c r="G45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>190</v>
-      </c>
-      <c r="F45" t="s">
-        <v>191</v>
-      </c>
-      <c r="G45" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>35</v>
-      </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -2646,701 +2668,731 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>225</v>
+      </c>
+      <c r="F47" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" t="s">
+        <v>204</v>
+      </c>
+      <c r="G51" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" t="s">
+        <v>212</v>
+      </c>
+      <c r="G52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" t="s">
+        <v>250</v>
+      </c>
+      <c r="G53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" t="s">
+        <v>250</v>
+      </c>
+      <c r="G57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" t="s">
+        <v>250</v>
+      </c>
+      <c r="G58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" t="s">
+        <v>185</v>
+      </c>
+      <c r="G63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>219</v>
+      </c>
+      <c r="F64" t="s">
+        <v>220</v>
+      </c>
+      <c r="G64" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66" t="s">
+        <v>191</v>
+      </c>
+      <c r="G66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>152</v>
+      </c>
+      <c r="G67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="G68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" t="s">
+        <v>253</v>
+      </c>
+      <c r="G70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" t="s">
+        <v>180</v>
+      </c>
+      <c r="G74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>202</v>
+      </c>
+      <c r="F75" t="s">
+        <v>180</v>
+      </c>
+      <c r="G75" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>272</v>
+      </c>
+      <c r="F76" t="s">
+        <v>250</v>
+      </c>
+      <c r="G76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" t="s">
+        <v>250</v>
+      </c>
+      <c r="G77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" t="s">
+        <v>250</v>
+      </c>
+      <c r="G78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
+        <v>178</v>
+      </c>
+      <c r="G82" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>218</v>
+      </c>
+      <c r="F83" t="s">
+        <v>166</v>
+      </c>
+      <c r="G83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>118</v>
+      </c>
+      <c r="F84" t="s">
+        <v>250</v>
+      </c>
+      <c r="G84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>221</v>
+      </c>
+      <c r="F85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G85" t="s">
+        <v>47</v>
+      </c>
+      <c r="H85" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>240</v>
+      </c>
+      <c r="F86" t="s">
+        <v>250</v>
+      </c>
+      <c r="G86" t="s">
+        <v>47</v>
+      </c>
+      <c r="H86" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" t="s">
+        <v>274</v>
+      </c>
+      <c r="C87" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>273</v>
+      </c>
+      <c r="F87" t="s">
+        <v>250</v>
+      </c>
+      <c r="G87" t="s">
+        <v>47</v>
+      </c>
+      <c r="H87" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" t="s">
         <v>37</v>
       </c>
-      <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>198</v>
-      </c>
-      <c r="F47" t="s">
-        <v>199</v>
-      </c>
-      <c r="G47" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>178</v>
-      </c>
-      <c r="F48" t="s">
-        <v>179</v>
-      </c>
-      <c r="G48" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>227</v>
-      </c>
-      <c r="F49" t="s">
-        <v>168</v>
-      </c>
-      <c r="G49" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
-        <v>205</v>
-      </c>
-      <c r="F53" t="s">
-        <v>206</v>
-      </c>
-      <c r="G53" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>213</v>
-      </c>
-      <c r="F54" t="s">
-        <v>214</v>
-      </c>
-      <c r="G54" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>37</v>
+      </c>
+      <c r="F88" t="s">
+        <v>250</v>
+      </c>
+      <c r="G88" t="s">
+        <v>47</v>
+      </c>
+      <c r="H88" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" t="s">
+        <v>255</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>51</v>
+      </c>
+      <c r="F89" t="s">
+        <v>250</v>
+      </c>
+      <c r="G89" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B90" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
         <v>241</v>
       </c>
-      <c r="F55" t="s">
-        <v>252</v>
-      </c>
-      <c r="G55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="F90" t="s">
+        <v>250</v>
+      </c>
+      <c r="G90" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" t="s">
+        <v>250</v>
+      </c>
+      <c r="C91" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>125</v>
-      </c>
-      <c r="F59" t="s">
-        <v>252</v>
-      </c>
-      <c r="G59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60">
-        <v>3</v>
-      </c>
-      <c r="E60" t="s">
-        <v>235</v>
-      </c>
-      <c r="F60" t="s">
-        <v>252</v>
-      </c>
-      <c r="G60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>172</v>
-      </c>
-      <c r="F64" t="s">
-        <v>169</v>
-      </c>
-      <c r="G64" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>73</v>
-      </c>
-      <c r="F65" t="s">
-        <v>187</v>
-      </c>
-      <c r="G65" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66" t="s">
-        <v>162</v>
-      </c>
-      <c r="C66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>221</v>
-      </c>
-      <c r="F66" t="s">
-        <v>222</v>
-      </c>
-      <c r="G66" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>146</v>
-      </c>
-      <c r="F67" t="s">
-        <v>170</v>
-      </c>
-      <c r="G67" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>192</v>
-      </c>
-      <c r="F68" t="s">
-        <v>193</v>
-      </c>
-      <c r="G68" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>155</v>
-      </c>
-      <c r="B69" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>154</v>
-      </c>
-      <c r="G69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>134</v>
-      </c>
-      <c r="G70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>158</v>
-      </c>
-      <c r="B71" t="s">
-        <v>159</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>157</v>
-      </c>
-      <c r="F71" t="s">
-        <v>57</v>
-      </c>
-      <c r="G71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" t="s">
-        <v>149</v>
-      </c>
-      <c r="E72" t="s">
-        <v>149</v>
-      </c>
-      <c r="F72" t="s">
-        <v>255</v>
-      </c>
-      <c r="G72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>138</v>
-      </c>
-      <c r="B76" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>137</v>
-      </c>
-      <c r="F76" t="s">
-        <v>182</v>
-      </c>
-      <c r="G76" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>132</v>
-      </c>
-      <c r="B77" t="s">
-        <v>133</v>
-      </c>
-      <c r="C77" t="s">
-        <v>131</v>
-      </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>204</v>
-      </c>
-      <c r="F77" t="s">
-        <v>182</v>
-      </c>
-      <c r="G77" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>152</v>
-      </c>
-      <c r="B78" t="s">
-        <v>153</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
-        <v>274</v>
-      </c>
-      <c r="F78" t="s">
-        <v>252</v>
-      </c>
-      <c r="G78" t="s">
-        <v>49</v>
-      </c>
-      <c r="H78" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>141</v>
-      </c>
-      <c r="B79" t="s">
-        <v>142</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
-        <v>140</v>
-      </c>
-      <c r="F79" t="s">
-        <v>252</v>
-      </c>
-      <c r="G79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" t="s">
-        <v>145</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
-        <v>143</v>
-      </c>
-      <c r="F80" t="s">
-        <v>252</v>
-      </c>
-      <c r="G80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" t="s">
-        <v>181</v>
-      </c>
-      <c r="C84" t="s">
-        <v>164</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>164</v>
-      </c>
-      <c r="F84" t="s">
-        <v>180</v>
-      </c>
-      <c r="G84" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>47</v>
-      </c>
-      <c r="B85" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" t="s">
-        <v>46</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>220</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
-      </c>
-      <c r="G85" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>121</v>
-      </c>
-      <c r="B86" t="s">
-        <v>122</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86" t="s">
-        <v>120</v>
-      </c>
-      <c r="F86" t="s">
-        <v>252</v>
-      </c>
-      <c r="G86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>45</v>
-      </c>
-      <c r="B87" t="s">
-        <v>254</v>
-      </c>
-      <c r="C87" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-      <c r="E87" t="s">
-        <v>223</v>
-      </c>
-      <c r="F87" t="s">
-        <v>252</v>
-      </c>
-      <c r="G87" t="s">
-        <v>49</v>
-      </c>
-      <c r="H87" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B88" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88" t="s">
-        <v>253</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88" t="s">
-        <v>242</v>
-      </c>
-      <c r="F88" t="s">
-        <v>252</v>
-      </c>
-      <c r="G88" t="s">
-        <v>49</v>
-      </c>
-      <c r="H88" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>64</v>
-      </c>
-      <c r="B89" t="s">
-        <v>276</v>
-      </c>
-      <c r="C89" t="s">
-        <v>240</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89" t="s">
-        <v>275</v>
-      </c>
-      <c r="F89" t="s">
-        <v>252</v>
-      </c>
-      <c r="G89" t="s">
-        <v>49</v>
-      </c>
-      <c r="H89" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>40</v>
-      </c>
-      <c r="B90" t="s">
-        <v>41</v>
-      </c>
-      <c r="C90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>39</v>
-      </c>
-      <c r="F90" t="s">
-        <v>252</v>
-      </c>
-      <c r="G90" t="s">
-        <v>49</v>
-      </c>
-      <c r="H90" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>54</v>
-      </c>
-      <c r="B91" t="s">
-        <v>234</v>
-      </c>
-      <c r="C91" t="s">
-        <v>257</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3349,158 +3401,115 @@
         <v>53</v>
       </c>
       <c r="F91" t="s">
-        <v>252</v>
+        <v>55</v>
       </c>
       <c r="G91" t="s">
+        <v>47</v>
+      </c>
+      <c r="H91" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>252</v>
-      </c>
-      <c r="B92" t="s">
-        <v>258</v>
-      </c>
       <c r="C92" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F92" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G92" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="H92" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>56</v>
+      <c r="A93" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="B93" t="s">
-        <v>252</v>
+        <v>50</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="F93" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="G93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>50</v>
+      <c r="A94" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="C94" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F94" t="s">
+        <v>250</v>
+      </c>
+      <c r="G94" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B95" t="s">
         <v>263</v>
       </c>
-      <c r="G94" t="s">
-        <v>49</v>
-      </c>
-      <c r="H94" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>252</v>
-      </c>
-      <c r="B95" t="s">
-        <v>52</v>
-      </c>
       <c r="C95" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F95" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G95" t="s">
-        <v>49</v>
-      </c>
-      <c r="H95" t="s">
-        <v>239</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>163</v>
-      </c>
-      <c r="B96" t="s">
-        <v>236</v>
-      </c>
-      <c r="C96" t="s">
-        <v>252</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96" t="s">
-        <v>237</v>
-      </c>
-      <c r="F96" t="s">
-        <v>252</v>
-      </c>
-      <c r="G96" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>252</v>
-      </c>
-      <c r="B97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C97" t="s">
-        <v>252</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97" t="s">
-        <v>252</v>
-      </c>
-      <c r="F97" t="s">
-        <v>252</v>
-      </c>
-      <c r="G97" t="s">
-        <v>49</v>
-      </c>
+      <c r="A96" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
